--- a/INTLINE/data/134/DEUSTATIS/National accounts - Gross national income quarters.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - Gross national income quarters.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="58">
   <si>
     <t>National accounts - Gross national income, national income:
 Germany, quarters, original and adjusted data</t>
@@ -123,6 +123,9 @@
     <t>2021</t>
   </si>
   <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>Quarter 1</t>
   </si>
   <si>
@@ -142,6 +145,9 @@
   </si>
   <si>
     <t>EUR bn</t>
+  </si>
+  <si>
+    <t>...</t>
   </si>
   <si>
     <t xml:space="preserve"> - Consumption of fixed capital</t>
@@ -180,7 +186,7 @@
     <t>paid by general government.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:17:32</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:54:21</t>
   </si>
 </sst>
 </file>
@@ -745,7 +751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="527">
+  <cellXfs count="543">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" wrapText="true"/>
@@ -1301,12 +1307,44 @@
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
@@ -2321,6 +2359,22 @@
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -2331,6 +2385,22 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
@@ -2864,586 +2934,604 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="275">
+      <c r="A4" t="s" s="283">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="276">
+      <c r="B4" t="s" s="284">
         <v>4</v>
       </c>
-      <c r="C4" t="s" s="277">
+      <c r="C4" t="s" s="285">
         <v>5</v>
       </c>
-      <c r="D4" s="278"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="280"/>
-      <c r="G4" t="s" s="281">
+      <c r="D4" s="286"/>
+      <c r="E4" s="287"/>
+      <c r="F4" s="288"/>
+      <c r="G4" t="s" s="289">
         <v>6</v>
       </c>
-      <c r="H4" s="282"/>
-      <c r="I4" s="283"/>
-      <c r="J4" s="284"/>
-      <c r="K4" t="s" s="285">
+      <c r="H4" s="290"/>
+      <c r="I4" s="291"/>
+      <c r="J4" s="292"/>
+      <c r="K4" t="s" s="293">
         <v>7</v>
       </c>
-      <c r="L4" s="286"/>
-      <c r="M4" s="287"/>
-      <c r="N4" s="288"/>
-      <c r="O4" t="s" s="289">
+      <c r="L4" s="294"/>
+      <c r="M4" s="295"/>
+      <c r="N4" s="296"/>
+      <c r="O4" t="s" s="297">
         <v>8</v>
       </c>
-      <c r="P4" s="290"/>
-      <c r="Q4" s="291"/>
-      <c r="R4" s="292"/>
-      <c r="S4" t="s" s="293">
+      <c r="P4" s="298"/>
+      <c r="Q4" s="299"/>
+      <c r="R4" s="300"/>
+      <c r="S4" t="s" s="301">
         <v>9</v>
       </c>
-      <c r="T4" s="294"/>
-      <c r="U4" s="295"/>
-      <c r="V4" s="296"/>
-      <c r="W4" t="s" s="297">
+      <c r="T4" s="302"/>
+      <c r="U4" s="303"/>
+      <c r="V4" s="304"/>
+      <c r="W4" t="s" s="305">
         <v>10</v>
       </c>
-      <c r="X4" s="298"/>
-      <c r="Y4" s="299"/>
-      <c r="Z4" s="300"/>
-      <c r="AA4" t="s" s="301">
+      <c r="X4" s="306"/>
+      <c r="Y4" s="307"/>
+      <c r="Z4" s="308"/>
+      <c r="AA4" t="s" s="309">
         <v>11</v>
       </c>
-      <c r="AB4" s="302"/>
-      <c r="AC4" s="303"/>
-      <c r="AD4" s="304"/>
-      <c r="AE4" t="s" s="305">
+      <c r="AB4" s="310"/>
+      <c r="AC4" s="311"/>
+      <c r="AD4" s="312"/>
+      <c r="AE4" t="s" s="313">
         <v>12</v>
       </c>
-      <c r="AF4" s="306"/>
-      <c r="AG4" s="307"/>
-      <c r="AH4" s="308"/>
-      <c r="AI4" t="s" s="309">
+      <c r="AF4" s="314"/>
+      <c r="AG4" s="315"/>
+      <c r="AH4" s="316"/>
+      <c r="AI4" t="s" s="317">
         <v>13</v>
       </c>
-      <c r="AJ4" s="310"/>
-      <c r="AK4" s="311"/>
-      <c r="AL4" s="312"/>
-      <c r="AM4" t="s" s="313">
+      <c r="AJ4" s="318"/>
+      <c r="AK4" s="319"/>
+      <c r="AL4" s="320"/>
+      <c r="AM4" t="s" s="321">
         <v>14</v>
       </c>
-      <c r="AN4" s="314"/>
-      <c r="AO4" s="315"/>
-      <c r="AP4" s="316"/>
-      <c r="AQ4" t="s" s="317">
+      <c r="AN4" s="322"/>
+      <c r="AO4" s="323"/>
+      <c r="AP4" s="324"/>
+      <c r="AQ4" t="s" s="325">
         <v>15</v>
       </c>
-      <c r="AR4" s="318"/>
-      <c r="AS4" s="319"/>
-      <c r="AT4" s="320"/>
-      <c r="AU4" t="s" s="321">
+      <c r="AR4" s="326"/>
+      <c r="AS4" s="327"/>
+      <c r="AT4" s="328"/>
+      <c r="AU4" t="s" s="329">
         <v>16</v>
       </c>
-      <c r="AV4" s="322"/>
-      <c r="AW4" s="323"/>
-      <c r="AX4" s="324"/>
-      <c r="AY4" t="s" s="325">
+      <c r="AV4" s="330"/>
+      <c r="AW4" s="331"/>
+      <c r="AX4" s="332"/>
+      <c r="AY4" t="s" s="333">
         <v>17</v>
       </c>
-      <c r="AZ4" s="326"/>
-      <c r="BA4" s="327"/>
-      <c r="BB4" s="328"/>
-      <c r="BC4" t="s" s="329">
+      <c r="AZ4" s="334"/>
+      <c r="BA4" s="335"/>
+      <c r="BB4" s="336"/>
+      <c r="BC4" t="s" s="337">
         <v>18</v>
       </c>
-      <c r="BD4" s="330"/>
-      <c r="BE4" s="331"/>
-      <c r="BF4" s="332"/>
-      <c r="BG4" t="s" s="333">
+      <c r="BD4" s="338"/>
+      <c r="BE4" s="339"/>
+      <c r="BF4" s="340"/>
+      <c r="BG4" t="s" s="341">
         <v>19</v>
       </c>
-      <c r="BH4" s="334"/>
-      <c r="BI4" s="335"/>
-      <c r="BJ4" s="336"/>
-      <c r="BK4" t="s" s="337">
+      <c r="BH4" s="342"/>
+      <c r="BI4" s="343"/>
+      <c r="BJ4" s="344"/>
+      <c r="BK4" t="s" s="345">
         <v>20</v>
       </c>
-      <c r="BL4" s="338"/>
-      <c r="BM4" s="339"/>
-      <c r="BN4" s="340"/>
-      <c r="BO4" t="s" s="341">
+      <c r="BL4" s="346"/>
+      <c r="BM4" s="347"/>
+      <c r="BN4" s="348"/>
+      <c r="BO4" t="s" s="349">
         <v>21</v>
       </c>
-      <c r="BP4" s="342"/>
-      <c r="BQ4" s="343"/>
-      <c r="BR4" s="344"/>
-      <c r="BS4" t="s" s="345">
+      <c r="BP4" s="350"/>
+      <c r="BQ4" s="351"/>
+      <c r="BR4" s="352"/>
+      <c r="BS4" t="s" s="353">
         <v>22</v>
       </c>
-      <c r="BT4" s="346"/>
-      <c r="BU4" s="347"/>
-      <c r="BV4" s="348"/>
-      <c r="BW4" t="s" s="349">
+      <c r="BT4" s="354"/>
+      <c r="BU4" s="355"/>
+      <c r="BV4" s="356"/>
+      <c r="BW4" t="s" s="357">
         <v>23</v>
       </c>
-      <c r="BX4" s="350"/>
-      <c r="BY4" s="351"/>
-      <c r="BZ4" s="352"/>
-      <c r="CA4" t="s" s="353">
+      <c r="BX4" s="358"/>
+      <c r="BY4" s="359"/>
+      <c r="BZ4" s="360"/>
+      <c r="CA4" t="s" s="361">
         <v>24</v>
       </c>
-      <c r="CB4" s="354"/>
-      <c r="CC4" s="355"/>
-      <c r="CD4" s="356"/>
-      <c r="CE4" t="s" s="357">
+      <c r="CB4" s="362"/>
+      <c r="CC4" s="363"/>
+      <c r="CD4" s="364"/>
+      <c r="CE4" t="s" s="365">
         <v>25</v>
       </c>
-      <c r="CF4" s="358"/>
-      <c r="CG4" s="359"/>
-      <c r="CH4" s="360"/>
-      <c r="CI4" t="s" s="361">
+      <c r="CF4" s="366"/>
+      <c r="CG4" s="367"/>
+      <c r="CH4" s="368"/>
+      <c r="CI4" t="s" s="369">
         <v>26</v>
       </c>
-      <c r="CJ4" s="362"/>
-      <c r="CK4" s="363"/>
-      <c r="CL4" s="364"/>
-      <c r="CM4" t="s" s="365">
+      <c r="CJ4" s="370"/>
+      <c r="CK4" s="371"/>
+      <c r="CL4" s="372"/>
+      <c r="CM4" t="s" s="373">
         <v>27</v>
       </c>
-      <c r="CN4" s="366"/>
-      <c r="CO4" s="367"/>
-      <c r="CP4" s="368"/>
-      <c r="CQ4" t="s" s="369">
+      <c r="CN4" s="374"/>
+      <c r="CO4" s="375"/>
+      <c r="CP4" s="376"/>
+      <c r="CQ4" t="s" s="377">
         <v>28</v>
       </c>
-      <c r="CR4" s="370"/>
-      <c r="CS4" s="371"/>
-      <c r="CT4" s="372"/>
-      <c r="CU4" t="s" s="373">
+      <c r="CR4" s="378"/>
+      <c r="CS4" s="379"/>
+      <c r="CT4" s="380"/>
+      <c r="CU4" t="s" s="381">
         <v>29</v>
       </c>
-      <c r="CV4" s="374"/>
-      <c r="CW4" s="375"/>
-      <c r="CX4" s="376"/>
-      <c r="CY4" t="s" s="377">
+      <c r="CV4" s="382"/>
+      <c r="CW4" s="383"/>
+      <c r="CX4" s="384"/>
+      <c r="CY4" t="s" s="385">
         <v>30</v>
       </c>
-      <c r="CZ4" s="378"/>
-      <c r="DA4" s="379"/>
-      <c r="DB4" s="380"/>
-      <c r="DC4" t="s" s="381">
+      <c r="CZ4" s="386"/>
+      <c r="DA4" s="387"/>
+      <c r="DB4" s="388"/>
+      <c r="DC4" t="s" s="389">
         <v>31</v>
       </c>
-      <c r="DD4" s="382"/>
-      <c r="DE4" s="383"/>
-      <c r="DF4" s="384"/>
-      <c r="DG4" t="s" s="385">
+      <c r="DD4" s="390"/>
+      <c r="DE4" s="391"/>
+      <c r="DF4" s="392"/>
+      <c r="DG4" t="s" s="393">
         <v>32</v>
       </c>
-      <c r="DH4" s="386"/>
-      <c r="DI4" s="387"/>
-      <c r="DJ4" s="388"/>
-      <c r="DK4" t="s" s="389">
+      <c r="DH4" s="394"/>
+      <c r="DI4" s="395"/>
+      <c r="DJ4" s="396"/>
+      <c r="DK4" t="s" s="397">
         <v>33</v>
       </c>
-      <c r="DL4" s="390"/>
-      <c r="DM4" s="391"/>
-      <c r="DN4" s="392"/>
-      <c r="DO4" t="s" s="393">
+      <c r="DL4" s="398"/>
+      <c r="DM4" s="399"/>
+      <c r="DN4" s="400"/>
+      <c r="DO4" t="s" s="401">
         <v>34</v>
       </c>
-      <c r="DP4" s="394"/>
-      <c r="DQ4" s="395"/>
-      <c r="DR4" s="396"/>
-      <c r="DS4" t="s" s="397">
+      <c r="DP4" s="402"/>
+      <c r="DQ4" s="403"/>
+      <c r="DR4" s="404"/>
+      <c r="DS4" t="s" s="405">
         <v>35</v>
       </c>
-      <c r="DT4" s="398"/>
-      <c r="DU4" s="399"/>
-      <c r="DV4" s="400"/>
+      <c r="DT4" s="406"/>
+      <c r="DU4" s="407"/>
+      <c r="DV4" s="408"/>
+      <c r="DW4" t="s" s="409">
+        <v>36</v>
+      </c>
+      <c r="DX4" s="410"/>
+      <c r="DY4" s="411"/>
+      <c r="DZ4" s="412"/>
     </row>
     <row r="5">
-      <c r="A5" s="401"/>
-      <c r="B5" s="402"/>
-      <c r="C5" t="s" s="403">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s" s="404">
+      <c r="A5" s="413"/>
+      <c r="B5" s="414"/>
+      <c r="C5" t="s" s="415">
         <v>37</v>
       </c>
-      <c r="E5" t="s" s="405">
+      <c r="D5" t="s" s="416">
         <v>38</v>
       </c>
-      <c r="F5" t="s" s="406">
+      <c r="E5" t="s" s="417">
         <v>39</v>
       </c>
-      <c r="G5" t="s" s="407">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s" s="408">
+      <c r="F5" t="s" s="418">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s" s="419">
         <v>37</v>
       </c>
-      <c r="I5" t="s" s="409">
+      <c r="H5" t="s" s="420">
         <v>38</v>
       </c>
-      <c r="J5" t="s" s="410">
+      <c r="I5" t="s" s="421">
         <v>39</v>
       </c>
-      <c r="K5" t="s" s="411">
-        <v>36</v>
-      </c>
-      <c r="L5" t="s" s="412">
+      <c r="J5" t="s" s="422">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s" s="423">
         <v>37</v>
       </c>
-      <c r="M5" t="s" s="413">
+      <c r="L5" t="s" s="424">
         <v>38</v>
       </c>
-      <c r="N5" t="s" s="414">
+      <c r="M5" t="s" s="425">
         <v>39</v>
       </c>
-      <c r="O5" t="s" s="415">
-        <v>36</v>
-      </c>
-      <c r="P5" t="s" s="416">
+      <c r="N5" t="s" s="426">
+        <v>40</v>
+      </c>
+      <c r="O5" t="s" s="427">
         <v>37</v>
       </c>
-      <c r="Q5" t="s" s="417">
+      <c r="P5" t="s" s="428">
         <v>38</v>
       </c>
-      <c r="R5" t="s" s="418">
+      <c r="Q5" t="s" s="429">
         <v>39</v>
       </c>
-      <c r="S5" t="s" s="419">
-        <v>36</v>
-      </c>
-      <c r="T5" t="s" s="420">
+      <c r="R5" t="s" s="430">
+        <v>40</v>
+      </c>
+      <c r="S5" t="s" s="431">
         <v>37</v>
       </c>
-      <c r="U5" t="s" s="421">
+      <c r="T5" t="s" s="432">
         <v>38</v>
       </c>
-      <c r="V5" t="s" s="422">
+      <c r="U5" t="s" s="433">
         <v>39</v>
       </c>
-      <c r="W5" t="s" s="423">
-        <v>36</v>
-      </c>
-      <c r="X5" t="s" s="424">
+      <c r="V5" t="s" s="434">
+        <v>40</v>
+      </c>
+      <c r="W5" t="s" s="435">
         <v>37</v>
       </c>
-      <c r="Y5" t="s" s="425">
+      <c r="X5" t="s" s="436">
         <v>38</v>
       </c>
-      <c r="Z5" t="s" s="426">
+      <c r="Y5" t="s" s="437">
         <v>39</v>
       </c>
-      <c r="AA5" t="s" s="427">
-        <v>36</v>
-      </c>
-      <c r="AB5" t="s" s="428">
+      <c r="Z5" t="s" s="438">
+        <v>40</v>
+      </c>
+      <c r="AA5" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="AC5" t="s" s="429">
+      <c r="AB5" t="s" s="440">
         <v>38</v>
       </c>
-      <c r="AD5" t="s" s="430">
+      <c r="AC5" t="s" s="441">
         <v>39</v>
       </c>
-      <c r="AE5" t="s" s="431">
-        <v>36</v>
-      </c>
-      <c r="AF5" t="s" s="432">
+      <c r="AD5" t="s" s="442">
+        <v>40</v>
+      </c>
+      <c r="AE5" t="s" s="443">
         <v>37</v>
       </c>
-      <c r="AG5" t="s" s="433">
+      <c r="AF5" t="s" s="444">
         <v>38</v>
       </c>
-      <c r="AH5" t="s" s="434">
+      <c r="AG5" t="s" s="445">
         <v>39</v>
       </c>
-      <c r="AI5" t="s" s="435">
-        <v>36</v>
-      </c>
-      <c r="AJ5" t="s" s="436">
+      <c r="AH5" t="s" s="446">
+        <v>40</v>
+      </c>
+      <c r="AI5" t="s" s="447">
         <v>37</v>
       </c>
-      <c r="AK5" t="s" s="437">
+      <c r="AJ5" t="s" s="448">
         <v>38</v>
       </c>
-      <c r="AL5" t="s" s="438">
+      <c r="AK5" t="s" s="449">
         <v>39</v>
       </c>
-      <c r="AM5" t="s" s="439">
-        <v>36</v>
-      </c>
-      <c r="AN5" t="s" s="440">
+      <c r="AL5" t="s" s="450">
+        <v>40</v>
+      </c>
+      <c r="AM5" t="s" s="451">
         <v>37</v>
       </c>
-      <c r="AO5" t="s" s="441">
+      <c r="AN5" t="s" s="452">
         <v>38</v>
       </c>
-      <c r="AP5" t="s" s="442">
+      <c r="AO5" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="AQ5" t="s" s="443">
-        <v>36</v>
-      </c>
-      <c r="AR5" t="s" s="444">
+      <c r="AP5" t="s" s="454">
+        <v>40</v>
+      </c>
+      <c r="AQ5" t="s" s="455">
         <v>37</v>
       </c>
-      <c r="AS5" t="s" s="445">
+      <c r="AR5" t="s" s="456">
         <v>38</v>
       </c>
-      <c r="AT5" t="s" s="446">
+      <c r="AS5" t="s" s="457">
         <v>39</v>
       </c>
-      <c r="AU5" t="s" s="447">
-        <v>36</v>
-      </c>
-      <c r="AV5" t="s" s="448">
+      <c r="AT5" t="s" s="458">
+        <v>40</v>
+      </c>
+      <c r="AU5" t="s" s="459">
         <v>37</v>
       </c>
-      <c r="AW5" t="s" s="449">
+      <c r="AV5" t="s" s="460">
         <v>38</v>
       </c>
-      <c r="AX5" t="s" s="450">
+      <c r="AW5" t="s" s="461">
         <v>39</v>
       </c>
-      <c r="AY5" t="s" s="451">
-        <v>36</v>
-      </c>
-      <c r="AZ5" t="s" s="452">
+      <c r="AX5" t="s" s="462">
+        <v>40</v>
+      </c>
+      <c r="AY5" t="s" s="463">
         <v>37</v>
       </c>
-      <c r="BA5" t="s" s="453">
+      <c r="AZ5" t="s" s="464">
         <v>38</v>
       </c>
-      <c r="BB5" t="s" s="454">
+      <c r="BA5" t="s" s="465">
         <v>39</v>
       </c>
-      <c r="BC5" t="s" s="455">
-        <v>36</v>
-      </c>
-      <c r="BD5" t="s" s="456">
+      <c r="BB5" t="s" s="466">
+        <v>40</v>
+      </c>
+      <c r="BC5" t="s" s="467">
         <v>37</v>
       </c>
-      <c r="BE5" t="s" s="457">
+      <c r="BD5" t="s" s="468">
         <v>38</v>
       </c>
-      <c r="BF5" t="s" s="458">
+      <c r="BE5" t="s" s="469">
         <v>39</v>
       </c>
-      <c r="BG5" t="s" s="459">
-        <v>36</v>
-      </c>
-      <c r="BH5" t="s" s="460">
+      <c r="BF5" t="s" s="470">
+        <v>40</v>
+      </c>
+      <c r="BG5" t="s" s="471">
         <v>37</v>
       </c>
-      <c r="BI5" t="s" s="461">
+      <c r="BH5" t="s" s="472">
         <v>38</v>
       </c>
-      <c r="BJ5" t="s" s="462">
+      <c r="BI5" t="s" s="473">
         <v>39</v>
       </c>
-      <c r="BK5" t="s" s="463">
-        <v>36</v>
-      </c>
-      <c r="BL5" t="s" s="464">
+      <c r="BJ5" t="s" s="474">
+        <v>40</v>
+      </c>
+      <c r="BK5" t="s" s="475">
         <v>37</v>
       </c>
-      <c r="BM5" t="s" s="465">
+      <c r="BL5" t="s" s="476">
         <v>38</v>
       </c>
-      <c r="BN5" t="s" s="466">
+      <c r="BM5" t="s" s="477">
         <v>39</v>
       </c>
-      <c r="BO5" t="s" s="467">
-        <v>36</v>
-      </c>
-      <c r="BP5" t="s" s="468">
+      <c r="BN5" t="s" s="478">
+        <v>40</v>
+      </c>
+      <c r="BO5" t="s" s="479">
         <v>37</v>
       </c>
-      <c r="BQ5" t="s" s="469">
+      <c r="BP5" t="s" s="480">
         <v>38</v>
       </c>
-      <c r="BR5" t="s" s="470">
+      <c r="BQ5" t="s" s="481">
         <v>39</v>
       </c>
-      <c r="BS5" t="s" s="471">
-        <v>36</v>
-      </c>
-      <c r="BT5" t="s" s="472">
+      <c r="BR5" t="s" s="482">
+        <v>40</v>
+      </c>
+      <c r="BS5" t="s" s="483">
         <v>37</v>
       </c>
-      <c r="BU5" t="s" s="473">
+      <c r="BT5" t="s" s="484">
         <v>38</v>
       </c>
-      <c r="BV5" t="s" s="474">
+      <c r="BU5" t="s" s="485">
         <v>39</v>
       </c>
-      <c r="BW5" t="s" s="475">
-        <v>36</v>
-      </c>
-      <c r="BX5" t="s" s="476">
+      <c r="BV5" t="s" s="486">
+        <v>40</v>
+      </c>
+      <c r="BW5" t="s" s="487">
         <v>37</v>
       </c>
-      <c r="BY5" t="s" s="477">
+      <c r="BX5" t="s" s="488">
         <v>38</v>
       </c>
-      <c r="BZ5" t="s" s="478">
+      <c r="BY5" t="s" s="489">
         <v>39</v>
       </c>
-      <c r="CA5" t="s" s="479">
-        <v>36</v>
-      </c>
-      <c r="CB5" t="s" s="480">
+      <c r="BZ5" t="s" s="490">
+        <v>40</v>
+      </c>
+      <c r="CA5" t="s" s="491">
         <v>37</v>
       </c>
-      <c r="CC5" t="s" s="481">
+      <c r="CB5" t="s" s="492">
         <v>38</v>
       </c>
-      <c r="CD5" t="s" s="482">
+      <c r="CC5" t="s" s="493">
         <v>39</v>
       </c>
-      <c r="CE5" t="s" s="483">
-        <v>36</v>
-      </c>
-      <c r="CF5" t="s" s="484">
+      <c r="CD5" t="s" s="494">
+        <v>40</v>
+      </c>
+      <c r="CE5" t="s" s="495">
         <v>37</v>
       </c>
-      <c r="CG5" t="s" s="485">
+      <c r="CF5" t="s" s="496">
         <v>38</v>
       </c>
-      <c r="CH5" t="s" s="486">
+      <c r="CG5" t="s" s="497">
         <v>39</v>
       </c>
-      <c r="CI5" t="s" s="487">
-        <v>36</v>
-      </c>
-      <c r="CJ5" t="s" s="488">
+      <c r="CH5" t="s" s="498">
+        <v>40</v>
+      </c>
+      <c r="CI5" t="s" s="499">
         <v>37</v>
       </c>
-      <c r="CK5" t="s" s="489">
+      <c r="CJ5" t="s" s="500">
         <v>38</v>
       </c>
-      <c r="CL5" t="s" s="490">
+      <c r="CK5" t="s" s="501">
         <v>39</v>
       </c>
-      <c r="CM5" t="s" s="491">
-        <v>36</v>
-      </c>
-      <c r="CN5" t="s" s="492">
+      <c r="CL5" t="s" s="502">
+        <v>40</v>
+      </c>
+      <c r="CM5" t="s" s="503">
         <v>37</v>
       </c>
-      <c r="CO5" t="s" s="493">
+      <c r="CN5" t="s" s="504">
         <v>38</v>
       </c>
-      <c r="CP5" t="s" s="494">
+      <c r="CO5" t="s" s="505">
         <v>39</v>
       </c>
-      <c r="CQ5" t="s" s="495">
-        <v>36</v>
-      </c>
-      <c r="CR5" t="s" s="496">
+      <c r="CP5" t="s" s="506">
+        <v>40</v>
+      </c>
+      <c r="CQ5" t="s" s="507">
         <v>37</v>
       </c>
-      <c r="CS5" t="s" s="497">
+      <c r="CR5" t="s" s="508">
         <v>38</v>
       </c>
-      <c r="CT5" t="s" s="498">
+      <c r="CS5" t="s" s="509">
         <v>39</v>
       </c>
-      <c r="CU5" t="s" s="499">
-        <v>36</v>
-      </c>
-      <c r="CV5" t="s" s="500">
+      <c r="CT5" t="s" s="510">
+        <v>40</v>
+      </c>
+      <c r="CU5" t="s" s="511">
         <v>37</v>
       </c>
-      <c r="CW5" t="s" s="501">
+      <c r="CV5" t="s" s="512">
         <v>38</v>
       </c>
-      <c r="CX5" t="s" s="502">
+      <c r="CW5" t="s" s="513">
         <v>39</v>
       </c>
-      <c r="CY5" t="s" s="503">
-        <v>36</v>
-      </c>
-      <c r="CZ5" t="s" s="504">
+      <c r="CX5" t="s" s="514">
+        <v>40</v>
+      </c>
+      <c r="CY5" t="s" s="515">
         <v>37</v>
       </c>
-      <c r="DA5" t="s" s="505">
+      <c r="CZ5" t="s" s="516">
         <v>38</v>
       </c>
-      <c r="DB5" t="s" s="506">
+      <c r="DA5" t="s" s="517">
         <v>39</v>
       </c>
-      <c r="DC5" t="s" s="507">
-        <v>36</v>
-      </c>
-      <c r="DD5" t="s" s="508">
+      <c r="DB5" t="s" s="518">
+        <v>40</v>
+      </c>
+      <c r="DC5" t="s" s="519">
         <v>37</v>
       </c>
-      <c r="DE5" t="s" s="509">
+      <c r="DD5" t="s" s="520">
         <v>38</v>
       </c>
-      <c r="DF5" t="s" s="510">
+      <c r="DE5" t="s" s="521">
         <v>39</v>
       </c>
-      <c r="DG5" t="s" s="511">
-        <v>36</v>
-      </c>
-      <c r="DH5" t="s" s="512">
+      <c r="DF5" t="s" s="522">
+        <v>40</v>
+      </c>
+      <c r="DG5" t="s" s="523">
         <v>37</v>
       </c>
-      <c r="DI5" t="s" s="513">
+      <c r="DH5" t="s" s="524">
         <v>38</v>
       </c>
-      <c r="DJ5" t="s" s="514">
+      <c r="DI5" t="s" s="525">
         <v>39</v>
       </c>
-      <c r="DK5" t="s" s="515">
-        <v>36</v>
-      </c>
-      <c r="DL5" t="s" s="516">
+      <c r="DJ5" t="s" s="526">
+        <v>40</v>
+      </c>
+      <c r="DK5" t="s" s="527">
         <v>37</v>
       </c>
-      <c r="DM5" t="s" s="517">
+      <c r="DL5" t="s" s="528">
         <v>38</v>
       </c>
-      <c r="DN5" t="s" s="518">
+      <c r="DM5" t="s" s="529">
         <v>39</v>
       </c>
-      <c r="DO5" t="s" s="519">
-        <v>36</v>
-      </c>
-      <c r="DP5" t="s" s="520">
+      <c r="DN5" t="s" s="530">
+        <v>40</v>
+      </c>
+      <c r="DO5" t="s" s="531">
         <v>37</v>
       </c>
-      <c r="DQ5" t="s" s="521">
+      <c r="DP5" t="s" s="532">
         <v>38</v>
       </c>
-      <c r="DR5" t="s" s="522">
+      <c r="DQ5" t="s" s="533">
         <v>39</v>
       </c>
-      <c r="DS5" t="s" s="523">
-        <v>36</v>
-      </c>
-      <c r="DT5" t="s" s="524">
+      <c r="DR5" t="s" s="534">
+        <v>40</v>
+      </c>
+      <c r="DS5" t="s" s="535">
         <v>37</v>
       </c>
-      <c r="DU5" t="s" s="525">
+      <c r="DT5" t="s" s="536">
         <v>38</v>
       </c>
-      <c r="DV5" t="s" s="526">
+      <c r="DU5" t="s" s="537">
         <v>39</v>
+      </c>
+      <c r="DV5" t="s" s="538">
+        <v>40</v>
+      </c>
+      <c r="DW5" t="s" s="539">
+        <v>37</v>
+      </c>
+      <c r="DX5" t="s" s="540">
+        <v>38</v>
+      </c>
+      <c r="DY5" t="s" s="541">
+        <v>39</v>
+      </c>
+      <c r="DZ5" t="s" s="542">
+        <v>40</v>
       </c>
     </row>
     <row r="6" ht="33.75" customHeight="true">
       <c r="A6" t="s" s="14">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="n" s="10">
         <v>379.655</v>
@@ -3806,24 +3894,36 @@
         <v>911.128</v>
       </c>
       <c r="DS7" t="n" s="10">
-        <v>877.09</v>
+        <v>876.91</v>
       </c>
       <c r="DT7" t="n" s="10">
-        <v>879.924</v>
+        <v>879.781</v>
       </c>
       <c r="DU7" t="n" s="10">
-        <v>944.31</v>
+        <v>944.155</v>
       </c>
       <c r="DV7" t="n" s="10">
-        <v>977.198</v>
+        <v>976.974</v>
+      </c>
+      <c r="DW7" t="n" s="10">
+        <v>953.903</v>
+      </c>
+      <c r="DX7" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY7" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ7" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="9">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s" s="13">
         <v>43</v>
-      </c>
-      <c r="B8" t="s" s="13">
-        <v>42</v>
       </c>
       <c r="C8" t="n" s="10">
         <v>59.859</v>
@@ -4186,24 +4286,36 @@
         <v>164.662</v>
       </c>
       <c r="DS8" t="n" s="10">
-        <v>168.222</v>
+        <v>168.302</v>
       </c>
       <c r="DT8" t="n" s="10">
-        <v>171.482</v>
+        <v>171.548</v>
       </c>
       <c r="DU8" t="n" s="10">
-        <v>176.29</v>
+        <v>176.357</v>
       </c>
       <c r="DV8" t="n" s="10">
-        <v>178.044</v>
+        <v>178.04</v>
+      </c>
+      <c r="DW8" t="n" s="10">
+        <v>183.665</v>
+      </c>
+      <c r="DX8" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY8" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ8" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="9">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="n" s="10">
         <v>319.796</v>
@@ -4566,24 +4678,36 @@
         <v>746.466</v>
       </c>
       <c r="DS9" t="n" s="10">
-        <v>708.868</v>
+        <v>708.608</v>
       </c>
       <c r="DT9" t="n" s="10">
-        <v>708.442</v>
+        <v>708.233</v>
       </c>
       <c r="DU9" t="n" s="10">
-        <v>768.02</v>
+        <v>767.798</v>
       </c>
       <c r="DV9" t="n" s="10">
-        <v>799.154</v>
+        <v>798.934</v>
+      </c>
+      <c r="DW9" t="n" s="10">
+        <v>770.238</v>
+      </c>
+      <c r="DX9" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY9" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ9" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="n" s="10">
         <v>30.656</v>
@@ -4946,24 +5070,36 @@
         <v>66.808</v>
       </c>
       <c r="DS10" t="n" s="10">
-        <v>64.551</v>
+        <v>63.644</v>
       </c>
       <c r="DT10" t="n" s="10">
-        <v>68.992</v>
+        <v>68.632</v>
       </c>
       <c r="DU10" t="n" s="10">
-        <v>80.503</v>
+        <v>78.638</v>
       </c>
       <c r="DV10" t="n" s="10">
-        <v>72.665</v>
+        <v>72.803</v>
+      </c>
+      <c r="DW10" t="n" s="10">
+        <v>92.581</v>
+      </c>
+      <c r="DX10" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY10" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ10" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="9">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="n" s="10">
         <v>289.14</v>
@@ -5326,24 +5462,36 @@
         <v>679.658</v>
       </c>
       <c r="DS11" t="n" s="10">
-        <v>644.317</v>
+        <v>644.964</v>
       </c>
       <c r="DT11" t="n" s="10">
-        <v>639.45</v>
+        <v>639.601</v>
       </c>
       <c r="DU11" t="n" s="10">
-        <v>687.517</v>
+        <v>689.16</v>
       </c>
       <c r="DV11" t="n" s="10">
-        <v>726.489</v>
+        <v>726.131</v>
+      </c>
+      <c r="DW11" t="n" s="10">
+        <v>677.657</v>
+      </c>
+      <c r="DX11" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY11" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ11" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="9">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="n" s="10">
         <v>98.943</v>
@@ -5706,24 +5854,36 @@
         <v>170.59</v>
       </c>
       <c r="DS12" t="n" s="10">
-        <v>199.042</v>
+        <v>199.936</v>
       </c>
       <c r="DT12" t="n" s="10">
-        <v>176.267</v>
+        <v>176.289</v>
       </c>
       <c r="DU12" t="n" s="10">
-        <v>208.404</v>
+        <v>210.157</v>
       </c>
       <c r="DV12" t="n" s="10">
-        <v>193.647</v>
+        <v>192.096</v>
+      </c>
+      <c r="DW12" t="n" s="10">
+        <v>203.113</v>
+      </c>
+      <c r="DX12" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY12" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ12" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="9">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="n" s="10">
         <v>190.197</v>
@@ -6086,29 +6246,41 @@
         <v>509.068</v>
       </c>
       <c r="DS13" t="n" s="10">
-        <v>445.275</v>
+        <v>445.028</v>
       </c>
       <c r="DT13" t="n" s="10">
-        <v>463.183</v>
+        <v>463.312</v>
       </c>
       <c r="DU13" t="n" s="10">
-        <v>479.113</v>
+        <v>479.003</v>
       </c>
       <c r="DV13" t="n" s="10">
-        <v>532.842</v>
+        <v>534.035</v>
+      </c>
+      <c r="DW13" t="n" s="10">
+        <v>474.544</v>
+      </c>
+      <c r="DX13" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY13" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ13" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="14" ht="33.75" customHeight="true">
       <c r="A14" t="s" s="14">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="n" s="10">
         <v>391.553</v>
@@ -6471,24 +6643,36 @@
         <v>887.311</v>
       </c>
       <c r="DS15" t="n" s="10">
-        <v>884.033</v>
+        <v>883.827</v>
       </c>
       <c r="DT15" t="n" s="10">
-        <v>902.822</v>
+        <v>902.778</v>
       </c>
       <c r="DU15" t="n" s="10">
-        <v>940.115</v>
+        <v>939.948</v>
       </c>
       <c r="DV15" t="n" s="10">
-        <v>951.552</v>
+        <v>951.267</v>
+      </c>
+      <c r="DW15" t="n" s="10">
+        <v>961.523</v>
+      </c>
+      <c r="DX15" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY15" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ15" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="9">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s" s="13">
         <v>43</v>
-      </c>
-      <c r="B16" t="s" s="13">
-        <v>42</v>
       </c>
       <c r="C16" t="n" s="10">
         <v>59.843</v>
@@ -6851,24 +7035,36 @@
         <v>165.249</v>
       </c>
       <c r="DS16" t="n" s="10">
-        <v>167.696</v>
+        <v>167.776</v>
       </c>
       <c r="DT16" t="n" s="10">
-        <v>171.329</v>
+        <v>171.395</v>
       </c>
       <c r="DU16" t="n" s="10">
-        <v>176.361</v>
+        <v>176.428</v>
       </c>
       <c r="DV16" t="n" s="10">
-        <v>178.653</v>
+        <v>178.649</v>
+      </c>
+      <c r="DW16" t="n" s="10">
+        <v>183.108</v>
+      </c>
+      <c r="DX16" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY16" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ16" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="9">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" t="n" s="10">
         <v>331.71</v>
@@ -7231,24 +7427,36 @@
         <v>722.062</v>
       </c>
       <c r="DS17" t="n" s="10">
-        <v>716.337</v>
+        <v>716.051</v>
       </c>
       <c r="DT17" t="n" s="10">
-        <v>731.493</v>
+        <v>731.383</v>
       </c>
       <c r="DU17" t="n" s="10">
-        <v>763.754</v>
+        <v>763.52</v>
       </c>
       <c r="DV17" t="n" s="10">
-        <v>772.899</v>
+        <v>772.618</v>
+      </c>
+      <c r="DW17" t="n" s="10">
+        <v>778.415</v>
+      </c>
+      <c r="DX17" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY17" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ17" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" t="n" s="10">
         <v>30.454</v>
@@ -7611,24 +7819,36 @@
         <v>69.903</v>
       </c>
       <c r="DS18" t="n" s="10">
-        <v>62.947</v>
+        <v>62.009</v>
       </c>
       <c r="DT18" t="n" s="10">
-        <v>66.591</v>
+        <v>66.329</v>
       </c>
       <c r="DU18" t="n" s="10">
-        <v>80.702</v>
+        <v>78.84</v>
       </c>
       <c r="DV18" t="n" s="10">
-        <v>76.47</v>
+        <v>76.537</v>
+      </c>
+      <c r="DW18" t="n" s="10">
+        <v>91.134</v>
+      </c>
+      <c r="DX18" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY18" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ18" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="9">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" t="n" s="10">
         <v>301.256</v>
@@ -7991,201 +8211,213 @@
         <v>652.159</v>
       </c>
       <c r="DS19" t="n" s="10">
-        <v>653.39</v>
+        <v>654.042</v>
       </c>
       <c r="DT19" t="n" s="10">
-        <v>664.902</v>
+        <v>665.054</v>
       </c>
       <c r="DU19" t="n" s="10">
-        <v>683.052</v>
+        <v>684.68</v>
       </c>
       <c r="DV19" t="n" s="10">
-        <v>696.429</v>
+        <v>696.081</v>
+      </c>
+      <c r="DW19" t="n" s="10">
+        <v>687.281</v>
+      </c>
+      <c r="DX19" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY19" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ19" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="9">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" t="n" s="10">
-        <v>95.363</v>
+        <v>95.357</v>
       </c>
       <c r="D20" t="n" s="10">
-        <v>92.825</v>
+        <v>92.831</v>
       </c>
       <c r="E20" t="n" s="10">
-        <v>92.722</v>
+        <v>92.73</v>
       </c>
       <c r="F20" t="n" s="10">
-        <v>95.195</v>
+        <v>95.188</v>
       </c>
       <c r="G20" t="n" s="10">
-        <v>100.409</v>
+        <v>100.402</v>
       </c>
       <c r="H20" t="n" s="10">
-        <v>96.462</v>
+        <v>96.463</v>
       </c>
       <c r="I20" t="n" s="10">
-        <v>93.137</v>
+        <v>93.15</v>
       </c>
       <c r="J20" t="n" s="10">
-        <v>94.483</v>
+        <v>94.475</v>
       </c>
       <c r="K20" t="n" s="10">
-        <v>93.551</v>
+        <v>93.544</v>
       </c>
       <c r="L20" t="n" s="10">
-        <v>96.113</v>
+        <v>96.109</v>
       </c>
       <c r="M20" t="n" s="10">
-        <v>94.909</v>
+        <v>94.928</v>
       </c>
       <c r="N20" t="n" s="10">
-        <v>94.013</v>
+        <v>94.004</v>
       </c>
       <c r="O20" t="n" s="10">
-        <v>94.711</v>
+        <v>94.704</v>
       </c>
       <c r="P20" t="n" s="10">
-        <v>99.353</v>
+        <v>99.348</v>
       </c>
       <c r="Q20" t="n" s="10">
-        <v>101.713</v>
+        <v>101.734</v>
       </c>
       <c r="R20" t="n" s="10">
-        <v>103.09</v>
+        <v>103.082</v>
       </c>
       <c r="S20" t="n" s="10">
-        <v>103.249</v>
+        <v>103.243</v>
       </c>
       <c r="T20" t="n" s="10">
-        <v>104.166</v>
+        <v>104.158</v>
       </c>
       <c r="U20" t="n" s="10">
-        <v>103.198</v>
+        <v>103.219</v>
       </c>
       <c r="V20" t="n" s="10">
-        <v>103.656</v>
+        <v>103.65</v>
       </c>
       <c r="W20" t="n" s="10">
-        <v>101.91</v>
+        <v>101.907</v>
       </c>
       <c r="X20" t="n" s="10">
-        <v>106.914</v>
+        <v>106.905</v>
       </c>
       <c r="Y20" t="n" s="10">
-        <v>106.092</v>
+        <v>106.107</v>
       </c>
       <c r="Z20" t="n" s="10">
-        <v>109.958</v>
+        <v>109.956</v>
       </c>
       <c r="AA20" t="n" s="10">
-        <v>98.596</v>
+        <v>98.595</v>
       </c>
       <c r="AB20" t="n" s="10">
-        <v>114.035</v>
+        <v>114.025</v>
       </c>
       <c r="AC20" t="n" s="10">
-        <v>115.289</v>
+        <v>115.297</v>
       </c>
       <c r="AD20" t="n" s="10">
-        <v>115.008</v>
+        <v>115.009</v>
       </c>
       <c r="AE20" t="n" s="10">
-        <v>114.682</v>
+        <v>114.684</v>
       </c>
       <c r="AF20" t="n" s="10">
-        <v>110.127</v>
+        <v>110.121</v>
       </c>
       <c r="AG20" t="n" s="10">
-        <v>115.031</v>
+        <v>115.032</v>
       </c>
       <c r="AH20" t="n" s="10">
-        <v>112.561</v>
+        <v>112.565</v>
       </c>
       <c r="AI20" t="n" s="10">
-        <v>109.42</v>
+        <v>109.421</v>
       </c>
       <c r="AJ20" t="n" s="10">
-        <v>110.979</v>
+        <v>110.971</v>
       </c>
       <c r="AK20" t="n" s="10">
-        <v>110.899</v>
+        <v>110.9</v>
       </c>
       <c r="AL20" t="n" s="10">
-        <v>109.687</v>
+        <v>109.692</v>
       </c>
       <c r="AM20" t="n" s="10">
         <v>113.351</v>
       </c>
       <c r="AN20" t="n" s="10">
-        <v>107.164</v>
+        <v>107.159</v>
       </c>
       <c r="AO20" t="n" s="10">
-        <v>104.459</v>
+        <v>104.46</v>
       </c>
       <c r="AP20" t="n" s="10">
-        <v>104.853</v>
+        <v>104.858</v>
       </c>
       <c r="AQ20" t="n" s="10">
         <v>115.254</v>
       </c>
       <c r="AR20" t="n" s="10">
-        <v>111.393</v>
+        <v>111.39</v>
       </c>
       <c r="AS20" t="n" s="10">
-        <v>113.907</v>
+        <v>113.909</v>
       </c>
       <c r="AT20" t="n" s="10">
-        <v>114.901</v>
+        <v>114.903</v>
       </c>
       <c r="AU20" t="n" s="10">
         <v>109.962</v>
       </c>
       <c r="AV20" t="n" s="10">
-        <v>114.113</v>
+        <v>114.112</v>
       </c>
       <c r="AW20" t="n" s="10">
-        <v>117.853</v>
+        <v>117.854</v>
       </c>
       <c r="AX20" t="n" s="10">
-        <v>112.678</v>
+        <v>112.679</v>
       </c>
       <c r="AY20" t="n" s="10">
-        <v>109.542</v>
+        <v>109.541</v>
       </c>
       <c r="AZ20" t="n" s="10">
         <v>110.583</v>
       </c>
       <c r="BA20" t="n" s="10">
-        <v>119.12</v>
+        <v>119.121</v>
       </c>
       <c r="BB20" t="n" s="10">
-        <v>114.919</v>
+        <v>114.92</v>
       </c>
       <c r="BC20" t="n" s="10">
-        <v>126.803</v>
+        <v>126.804</v>
       </c>
       <c r="BD20" t="n" s="10">
-        <v>137.827</v>
+        <v>137.826</v>
       </c>
       <c r="BE20" t="n" s="10">
-        <v>134.145</v>
+        <v>134.146</v>
       </c>
       <c r="BF20" t="n" s="10">
         <v>132.037</v>
       </c>
       <c r="BG20" t="n" s="10">
-        <v>129.748</v>
+        <v>129.749</v>
       </c>
       <c r="BH20" t="n" s="10">
         <v>144.313</v>
       </c>
       <c r="BI20" t="n" s="10">
-        <v>138.559</v>
+        <v>138.558</v>
       </c>
       <c r="BJ20" t="n" s="10">
         <v>140.256</v>
@@ -8194,10 +8426,10 @@
         <v>153.024</v>
       </c>
       <c r="BL20" t="n" s="10">
-        <v>158.614</v>
+        <v>158.613</v>
       </c>
       <c r="BM20" t="n" s="10">
-        <v>155.559</v>
+        <v>155.56</v>
       </c>
       <c r="BN20" t="n" s="10">
         <v>164.239</v>
@@ -8215,357 +8447,369 @@
         <v>169.09</v>
       </c>
       <c r="BS20" t="n" s="10">
-        <v>164.521</v>
+        <v>164.519</v>
       </c>
       <c r="BT20" t="n" s="10">
-        <v>165.146</v>
+        <v>165.142</v>
       </c>
       <c r="BU20" t="n" s="10">
-        <v>154.977</v>
+        <v>154.984</v>
       </c>
       <c r="BV20" t="n" s="10">
-        <v>143.613</v>
+        <v>143.612</v>
       </c>
       <c r="BW20" t="n" s="10">
-        <v>130.187</v>
+        <v>130.184</v>
       </c>
       <c r="BX20" t="n" s="10">
-        <v>131.011</v>
+        <v>131.004</v>
       </c>
       <c r="BY20" t="n" s="10">
-        <v>140.533</v>
+        <v>140.547</v>
       </c>
       <c r="BZ20" t="n" s="10">
-        <v>145.559</v>
+        <v>145.557</v>
       </c>
       <c r="CA20" t="n" s="10">
-        <v>147.627</v>
+        <v>147.619</v>
       </c>
       <c r="CB20" t="n" s="10">
-        <v>148.589</v>
+        <v>148.579</v>
       </c>
       <c r="CC20" t="n" s="10">
-        <v>153.189</v>
+        <v>153.21</v>
       </c>
       <c r="CD20" t="n" s="10">
-        <v>160.28</v>
+        <v>160.277</v>
       </c>
       <c r="CE20" t="n" s="10">
-        <v>166.511</v>
+        <v>166.5</v>
       </c>
       <c r="CF20" t="n" s="10">
-        <v>161.387</v>
+        <v>161.375</v>
       </c>
       <c r="CG20" t="n" s="10">
-        <v>168.832</v>
+        <v>168.852</v>
       </c>
       <c r="CH20" t="n" s="10">
-        <v>167.156</v>
+        <v>167.159</v>
       </c>
       <c r="CI20" t="n" s="10">
-        <v>165.989</v>
+        <v>165.97</v>
       </c>
       <c r="CJ20" t="n" s="10">
-        <v>155.284</v>
+        <v>155.27</v>
       </c>
       <c r="CK20" t="n" s="10">
-        <v>156.791</v>
+        <v>156.81</v>
       </c>
       <c r="CL20" t="n" s="10">
-        <v>155.805</v>
+        <v>155.819</v>
       </c>
       <c r="CM20" t="n" s="10">
-        <v>153.637</v>
+        <v>153.611</v>
       </c>
       <c r="CN20" t="n" s="10">
-        <v>164.866</v>
+        <v>164.847</v>
       </c>
       <c r="CO20" t="n" s="10">
-        <v>161.052</v>
+        <v>161.055</v>
       </c>
       <c r="CP20" t="n" s="10">
-        <v>160.606</v>
+        <v>160.648</v>
       </c>
       <c r="CQ20" t="n" s="10">
-        <v>167.004</v>
+        <v>166.966</v>
       </c>
       <c r="CR20" t="n" s="10">
-        <v>165.035</v>
+        <v>165.016</v>
       </c>
       <c r="CS20" t="n" s="10">
-        <v>168.56</v>
+        <v>168.539</v>
       </c>
       <c r="CT20" t="n" s="10">
-        <v>168.751</v>
+        <v>168.831</v>
       </c>
       <c r="CU20" t="n" s="10">
-        <v>171.225</v>
+        <v>171.171</v>
       </c>
       <c r="CV20" t="n" s="10">
-        <v>166.956</v>
+        <v>166.936</v>
       </c>
       <c r="CW20" t="n" s="10">
-        <v>175.442</v>
+        <v>175.392</v>
       </c>
       <c r="CX20" t="n" s="10">
-        <v>174.321</v>
+        <v>174.445</v>
       </c>
       <c r="CY20" t="n" s="10">
-        <v>177.449</v>
+        <v>177.368</v>
       </c>
       <c r="CZ20" t="n" s="10">
-        <v>187.912</v>
+        <v>187.894</v>
       </c>
       <c r="DA20" t="n" s="10">
-        <v>177.887</v>
+        <v>177.817</v>
       </c>
       <c r="DB20" t="n" s="10">
-        <v>177.206</v>
+        <v>177.378</v>
       </c>
       <c r="DC20" t="n" s="10">
-        <v>186.38</v>
+        <v>186.263</v>
       </c>
       <c r="DD20" t="n" s="10">
-        <v>183.463</v>
+        <v>183.448</v>
       </c>
       <c r="DE20" t="n" s="10">
-        <v>189.187</v>
+        <v>189.096</v>
       </c>
       <c r="DF20" t="n" s="10">
-        <v>188.893</v>
+        <v>189.116</v>
       </c>
       <c r="DG20" t="n" s="10">
-        <v>190.745</v>
+        <v>190.592</v>
       </c>
       <c r="DH20" t="n" s="10">
-        <v>195.286</v>
+        <v>195.289</v>
       </c>
       <c r="DI20" t="n" s="10">
-        <v>185.176</v>
+        <v>185.04</v>
       </c>
       <c r="DJ20" t="n" s="10">
-        <v>192.592</v>
+        <v>192.88</v>
       </c>
       <c r="DK20" t="n" s="10">
-        <v>192.993</v>
+        <v>192.802</v>
       </c>
       <c r="DL20" t="n" s="10">
-        <v>186.186</v>
+        <v>186.216</v>
       </c>
       <c r="DM20" t="n" s="10">
-        <v>187.819</v>
+        <v>187.621</v>
       </c>
       <c r="DN20" t="n" s="10">
-        <v>185.697</v>
+        <v>186.057</v>
       </c>
       <c r="DO20" t="n" s="10">
-        <v>181.787</v>
+        <v>181.581</v>
       </c>
       <c r="DP20" t="n" s="10">
-        <v>137.817</v>
+        <v>137.886</v>
       </c>
       <c r="DQ20" t="n" s="10">
-        <v>174.338</v>
+        <v>174.072</v>
       </c>
       <c r="DR20" t="n" s="10">
-        <v>182.187</v>
+        <v>182.59</v>
       </c>
       <c r="DS20" t="n" s="10">
-        <v>185.427</v>
+        <v>186.111</v>
       </c>
       <c r="DT20" t="n" s="10">
-        <v>192.24</v>
+        <v>192.344</v>
       </c>
       <c r="DU20" t="n" s="10">
-        <v>195.818</v>
+        <v>197.158</v>
       </c>
       <c r="DV20" t="n" s="10">
-        <v>203.875</v>
+        <v>202.869</v>
+      </c>
+      <c r="DW20" t="n" s="10">
+        <v>188.628</v>
+      </c>
+      <c r="DX20" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY20" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ20" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="9">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" t="n" s="10">
-        <v>205.893</v>
+        <v>205.899</v>
       </c>
       <c r="D21" t="n" s="10">
-        <v>214.81</v>
+        <v>214.804</v>
       </c>
       <c r="E21" t="n" s="10">
-        <v>215.949</v>
+        <v>215.941</v>
       </c>
       <c r="F21" t="n" s="10">
-        <v>219.158</v>
+        <v>219.165</v>
       </c>
       <c r="G21" t="n" s="10">
-        <v>225.53</v>
+        <v>225.537</v>
       </c>
       <c r="H21" t="n" s="10">
-        <v>229.877</v>
+        <v>229.876</v>
       </c>
       <c r="I21" t="n" s="10">
-        <v>236.961</v>
+        <v>236.948</v>
       </c>
       <c r="J21" t="n" s="10">
-        <v>235.367</v>
+        <v>235.375</v>
       </c>
       <c r="K21" t="n" s="10">
-        <v>233.799</v>
+        <v>233.806</v>
       </c>
       <c r="L21" t="n" s="10">
-        <v>237.023</v>
+        <v>237.027</v>
       </c>
       <c r="M21" t="n" s="10">
-        <v>238.462</v>
+        <v>238.443</v>
       </c>
       <c r="N21" t="n" s="10">
-        <v>240.073</v>
+        <v>240.082</v>
       </c>
       <c r="O21" t="n" s="10">
-        <v>242.509</v>
+        <v>242.516</v>
       </c>
       <c r="P21" t="n" s="10">
-        <v>241.521</v>
+        <v>241.526</v>
       </c>
       <c r="Q21" t="n" s="10">
-        <v>243.669</v>
+        <v>243.648</v>
       </c>
       <c r="R21" t="n" s="10">
-        <v>246.896</v>
+        <v>246.904</v>
       </c>
       <c r="S21" t="n" s="10">
-        <v>248.938</v>
+        <v>248.944</v>
       </c>
       <c r="T21" t="n" s="10">
-        <v>251.561</v>
+        <v>251.569</v>
       </c>
       <c r="U21" t="n" s="10">
-        <v>253.566</v>
+        <v>253.545</v>
       </c>
       <c r="V21" t="n" s="10">
-        <v>255.365</v>
+        <v>255.371</v>
       </c>
       <c r="W21" t="n" s="10">
-        <v>254.04</v>
+        <v>254.043</v>
       </c>
       <c r="X21" t="n" s="10">
-        <v>253.367</v>
+        <v>253.376</v>
       </c>
       <c r="Y21" t="n" s="10">
+        <v>255.303</v>
+      </c>
+      <c r="Z21" t="n" s="10">
+        <v>255.879</v>
+      </c>
+      <c r="AA21" t="n" s="10">
         <v>255.318</v>
       </c>
-      <c r="Z21" t="n" s="10">
-        <v>255.877</v>
-      </c>
-      <c r="AA21" t="n" s="10">
-        <v>255.317</v>
-      </c>
       <c r="AB21" t="n" s="10">
-        <v>254.936</v>
+        <v>254.946</v>
       </c>
       <c r="AC21" t="n" s="10">
-        <v>255.157</v>
+        <v>255.149</v>
       </c>
       <c r="AD21" t="n" s="10">
-        <v>257.016</v>
+        <v>257.015</v>
       </c>
       <c r="AE21" t="n" s="10">
-        <v>257.712</v>
+        <v>257.71</v>
       </c>
       <c r="AF21" t="n" s="10">
-        <v>260.233</v>
+        <v>260.239</v>
       </c>
       <c r="AG21" t="n" s="10">
-        <v>262.042</v>
+        <v>262.041</v>
       </c>
       <c r="AH21" t="n" s="10">
-        <v>264.366</v>
+        <v>264.362</v>
       </c>
       <c r="AI21" t="n" s="10">
-        <v>264.349</v>
+        <v>264.348</v>
       </c>
       <c r="AJ21" t="n" s="10">
-        <v>268.271</v>
+        <v>268.279</v>
       </c>
       <c r="AK21" t="n" s="10">
-        <v>269.833</v>
+        <v>269.832</v>
       </c>
       <c r="AL21" t="n" s="10">
-        <v>271.916</v>
+        <v>271.911</v>
       </c>
       <c r="AM21" t="n" s="10">
         <v>276.115</v>
       </c>
       <c r="AN21" t="n" s="10">
-        <v>278.342</v>
+        <v>278.347</v>
       </c>
       <c r="AO21" t="n" s="10">
-        <v>280.67</v>
+        <v>280.669</v>
       </c>
       <c r="AP21" t="n" s="10">
-        <v>282.285</v>
+        <v>282.28</v>
       </c>
       <c r="AQ21" t="n" s="10">
         <v>282.591</v>
       </c>
       <c r="AR21" t="n" s="10">
-        <v>283.108</v>
+        <v>283.111</v>
       </c>
       <c r="AS21" t="n" s="10">
-        <v>283.359</v>
+        <v>283.357</v>
       </c>
       <c r="AT21" t="n" s="10">
-        <v>285.991</v>
+        <v>285.989</v>
       </c>
       <c r="AU21" t="n" s="10">
         <v>284.589</v>
       </c>
       <c r="AV21" t="n" s="10">
-        <v>284.421</v>
+        <v>284.422</v>
       </c>
       <c r="AW21" t="n" s="10">
-        <v>286.303</v>
+        <v>286.302</v>
       </c>
       <c r="AX21" t="n" s="10">
-        <v>286.891</v>
+        <v>286.89</v>
       </c>
       <c r="AY21" t="n" s="10">
-        <v>286.005</v>
+        <v>286.006</v>
       </c>
       <c r="AZ21" t="n" s="10">
         <v>285.213</v>
       </c>
       <c r="BA21" t="n" s="10">
-        <v>287.555</v>
+        <v>287.554</v>
       </c>
       <c r="BB21" t="n" s="10">
-        <v>287.148</v>
+        <v>287.147</v>
       </c>
       <c r="BC21" t="n" s="10">
-        <v>287.898</v>
+        <v>287.897</v>
       </c>
       <c r="BD21" t="n" s="10">
-        <v>287.405</v>
+        <v>287.406</v>
       </c>
       <c r="BE21" t="n" s="10">
-        <v>287.432</v>
+        <v>287.431</v>
       </c>
       <c r="BF21" t="n" s="10">
         <v>287.275</v>
       </c>
       <c r="BG21" t="n" s="10">
-        <v>287.369</v>
+        <v>287.368</v>
       </c>
       <c r="BH21" t="n" s="10">
         <v>286.829</v>
       </c>
       <c r="BI21" t="n" s="10">
-        <v>286.956</v>
+        <v>286.957</v>
       </c>
       <c r="BJ21" t="n" s="10">
         <v>287.804</v>
@@ -8574,10 +8818,10 @@
         <v>289.021</v>
       </c>
       <c r="BL21" t="n" s="10">
-        <v>290.998</v>
+        <v>290.999</v>
       </c>
       <c r="BM21" t="n" s="10">
-        <v>294.639</v>
+        <v>294.638</v>
       </c>
       <c r="BN21" t="n" s="10">
         <v>295.217</v>
@@ -8595,185 +8839,197 @@
         <v>304.574</v>
       </c>
       <c r="BS21" t="n" s="10">
-        <v>308.962</v>
+        <v>308.964</v>
       </c>
       <c r="BT21" t="n" s="10">
-        <v>311.772</v>
+        <v>311.776</v>
       </c>
       <c r="BU21" t="n" s="10">
-        <v>313.956</v>
+        <v>313.949</v>
       </c>
       <c r="BV21" t="n" s="10">
-        <v>316.529</v>
+        <v>316.53</v>
       </c>
       <c r="BW21" t="n" s="10">
-        <v>313.951</v>
+        <v>313.954</v>
       </c>
       <c r="BX21" t="n" s="10">
-        <v>312.907</v>
+        <v>312.914</v>
       </c>
       <c r="BY21" t="n" s="10">
-        <v>314.982</v>
+        <v>314.968</v>
       </c>
       <c r="BZ21" t="n" s="10">
-        <v>316.19</v>
+        <v>316.192</v>
       </c>
       <c r="CA21" t="n" s="10">
-        <v>319.296</v>
+        <v>319.304</v>
       </c>
       <c r="CB21" t="n" s="10">
-        <v>321.991</v>
+        <v>322.001</v>
       </c>
       <c r="CC21" t="n" s="10">
-        <v>325.473</v>
+        <v>325.452</v>
       </c>
       <c r="CD21" t="n" s="10">
-        <v>328.649</v>
+        <v>328.652</v>
       </c>
       <c r="CE21" t="n" s="10">
-        <v>333.53</v>
+        <v>333.541</v>
       </c>
       <c r="CF21" t="n" s="10">
-        <v>337.317</v>
+        <v>337.329</v>
       </c>
       <c r="CG21" t="n" s="10">
-        <v>339.379</v>
+        <v>339.359</v>
       </c>
       <c r="CH21" t="n" s="10">
-        <v>341.968</v>
+        <v>341.965</v>
       </c>
       <c r="CI21" t="n" s="10">
-        <v>346.351</v>
+        <v>346.37</v>
       </c>
       <c r="CJ21" t="n" s="10">
-        <v>350.956</v>
+        <v>350.97</v>
       </c>
       <c r="CK21" t="n" s="10">
-        <v>352.989</v>
+        <v>352.97</v>
       </c>
       <c r="CL21" t="n" s="10">
-        <v>355.594</v>
+        <v>355.58</v>
       </c>
       <c r="CM21" t="n" s="10">
-        <v>356.766</v>
+        <v>356.792</v>
       </c>
       <c r="CN21" t="n" s="10">
-        <v>360.117</v>
+        <v>360.136</v>
       </c>
       <c r="CO21" t="n" s="10">
-        <v>363.43</v>
+        <v>363.427</v>
       </c>
       <c r="CP21" t="n" s="10">
-        <v>366.299</v>
+        <v>366.257</v>
       </c>
       <c r="CQ21" t="n" s="10">
-        <v>371.461</v>
+        <v>371.499</v>
       </c>
       <c r="CR21" t="n" s="10">
-        <v>374.317</v>
+        <v>374.336</v>
       </c>
       <c r="CS21" t="n" s="10">
-        <v>377.494</v>
+        <v>377.515</v>
       </c>
       <c r="CT21" t="n" s="10">
-        <v>380.678</v>
+        <v>380.598</v>
       </c>
       <c r="CU21" t="n" s="10">
-        <v>384.289</v>
+        <v>384.343</v>
       </c>
       <c r="CV21" t="n" s="10">
-        <v>390.016</v>
+        <v>390.036</v>
       </c>
       <c r="CW21" t="n" s="10">
-        <v>393.167</v>
+        <v>393.217</v>
       </c>
       <c r="CX21" t="n" s="10">
-        <v>397.34</v>
+        <v>397.216</v>
       </c>
       <c r="CY21" t="n" s="10">
-        <v>400.544</v>
+        <v>400.625</v>
       </c>
       <c r="CZ21" t="n" s="10">
-        <v>403.656</v>
+        <v>403.674</v>
       </c>
       <c r="DA21" t="n" s="10">
-        <v>407.794</v>
+        <v>407.864</v>
       </c>
       <c r="DB21" t="n" s="10">
-        <v>413.054</v>
+        <v>412.882</v>
       </c>
       <c r="DC21" t="n" s="10">
-        <v>417.28</v>
+        <v>417.397</v>
       </c>
       <c r="DD21" t="n" s="10">
-        <v>421.741</v>
+        <v>421.756</v>
       </c>
       <c r="DE21" t="n" s="10">
-        <v>425.718</v>
+        <v>425.809</v>
       </c>
       <c r="DF21" t="n" s="10">
-        <v>431.577</v>
+        <v>431.354</v>
       </c>
       <c r="DG21" t="n" s="10">
-        <v>435.876</v>
+        <v>436.029</v>
       </c>
       <c r="DH21" t="n" s="10">
-        <v>440.763</v>
+        <v>440.76</v>
       </c>
       <c r="DI21" t="n" s="10">
-        <v>446.54</v>
+        <v>446.676</v>
       </c>
       <c r="DJ21" t="n" s="10">
-        <v>450.478</v>
+        <v>450.19</v>
       </c>
       <c r="DK21" t="n" s="10">
-        <v>456.997</v>
+        <v>457.188</v>
       </c>
       <c r="DL21" t="n" s="10">
-        <v>462.434</v>
+        <v>462.404</v>
       </c>
       <c r="DM21" t="n" s="10">
-        <v>468.052</v>
+        <v>468.25</v>
       </c>
       <c r="DN21" t="n" s="10">
-        <v>468.044</v>
+        <v>467.684</v>
       </c>
       <c r="DO21" t="n" s="10">
-        <v>469.829</v>
+        <v>470.035</v>
       </c>
       <c r="DP21" t="n" s="10">
-        <v>448.023</v>
+        <v>447.954</v>
       </c>
       <c r="DQ21" t="n" s="10">
-        <v>464.281</v>
+        <v>464.547</v>
       </c>
       <c r="DR21" t="n" s="10">
-        <v>469.972</v>
+        <v>469.569</v>
       </c>
       <c r="DS21" t="n" s="10">
-        <v>467.963</v>
+        <v>467.931</v>
       </c>
       <c r="DT21" t="n" s="10">
-        <v>472.662</v>
+        <v>472.71</v>
       </c>
       <c r="DU21" t="n" s="10">
-        <v>487.234</v>
+        <v>487.522</v>
       </c>
       <c r="DV21" t="n" s="10">
-        <v>492.554</v>
+        <v>493.212</v>
+      </c>
+      <c r="DW21" t="n" s="10">
+        <v>498.653</v>
+      </c>
+      <c r="DX21" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY21" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ21" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="22" ht="33.75" customHeight="true">
       <c r="A22" t="s" s="14">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" t="n" s="10">
         <v>389.062</v>
@@ -8935,76 +9191,76 @@
         <v>565.117</v>
       </c>
       <c r="BD23" t="n" s="10">
-        <v>568.552</v>
+        <v>568.554</v>
       </c>
       <c r="BE23" t="n" s="10">
-        <v>569.429</v>
+        <v>569.434</v>
       </c>
       <c r="BF23" t="n" s="10">
-        <v>573.278</v>
+        <v>573.282</v>
       </c>
       <c r="BG23" t="n" s="10">
-        <v>568.182</v>
+        <v>568.134</v>
       </c>
       <c r="BH23" t="n" s="10">
-        <v>576.287</v>
+        <v>576.261</v>
       </c>
       <c r="BI23" t="n" s="10">
-        <v>579.736</v>
+        <v>579.841</v>
       </c>
       <c r="BJ23" t="n" s="10">
-        <v>583.554</v>
+        <v>583.812</v>
       </c>
       <c r="BK23" t="n" s="10">
-        <v>594.169</v>
+        <v>593.667</v>
       </c>
       <c r="BL23" t="n" s="10">
-        <v>601.604</v>
+        <v>601.47</v>
       </c>
       <c r="BM23" t="n" s="10">
-        <v>609.565</v>
+        <v>609.973</v>
       </c>
       <c r="BN23" t="n" s="10">
-        <v>620.603</v>
+        <v>621.169</v>
       </c>
       <c r="BO23" t="n" s="10">
-        <v>627.719</v>
+        <v>626.832</v>
       </c>
       <c r="BP23" t="n" s="10">
-        <v>627.164</v>
+        <v>626.961</v>
       </c>
       <c r="BQ23" t="n" s="10">
-        <v>635.977</v>
+        <v>636.495</v>
       </c>
       <c r="BR23" t="n" s="10">
-        <v>643.171</v>
+        <v>643.535</v>
       </c>
       <c r="BS23" t="n" s="10">
-        <v>644.273</v>
+        <v>643.771</v>
       </c>
       <c r="BT23" t="n" s="10">
-        <v>649.04</v>
+        <v>648.906</v>
       </c>
       <c r="BU23" t="n" s="10">
-        <v>642.324</v>
+        <v>642.538</v>
       </c>
       <c r="BV23" t="n" s="10">
-        <v>632.476</v>
+        <v>632.534</v>
       </c>
       <c r="BW23" t="n" s="10">
-        <v>620.726</v>
+        <v>620.677</v>
       </c>
       <c r="BX23" t="n" s="10">
-        <v>619.529</v>
+        <v>619.504</v>
       </c>
       <c r="BY23" t="n" s="10">
-        <v>626.992</v>
+        <v>626.997</v>
       </c>
       <c r="BZ23" t="n" s="10">
-        <v>634.065</v>
+        <v>634.069</v>
       </c>
       <c r="CA23" t="n" s="10">
-        <v>640.657</v>
+        <v>640.658</v>
       </c>
       <c r="CB23" t="n" s="10">
         <v>650.828</v>
@@ -9088,72 +9344,84 @@
         <v>811.833</v>
       </c>
       <c r="DC23" t="n" s="10">
-        <v>824.42</v>
+        <v>824.415</v>
       </c>
       <c r="DD23" t="n" s="10">
-        <v>827.178</v>
+        <v>827.157</v>
       </c>
       <c r="DE23" t="n" s="10">
-        <v>842.403</v>
+        <v>842.367</v>
       </c>
       <c r="DF23" t="n" s="10">
-        <v>850.16</v>
+        <v>850.267</v>
       </c>
       <c r="DG23" t="n" s="10">
-        <v>855.725</v>
+        <v>856.048</v>
       </c>
       <c r="DH23" t="n" s="10">
-        <v>868.24</v>
+        <v>868.134</v>
       </c>
       <c r="DI23" t="n" s="10">
-        <v>870.276</v>
+        <v>869.031</v>
       </c>
       <c r="DJ23" t="n" s="10">
-        <v>880.386</v>
+        <v>880.305</v>
       </c>
       <c r="DK23" t="n" s="10">
-        <v>889.6</v>
+        <v>892.468</v>
       </c>
       <c r="DL23" t="n" s="10">
-        <v>892.382</v>
+        <v>892.388</v>
       </c>
       <c r="DM23" t="n" s="10">
-        <v>903.987</v>
+        <v>900.141</v>
       </c>
       <c r="DN23" t="n" s="10">
-        <v>898.233</v>
+        <v>897.335</v>
       </c>
       <c r="DO23" t="n" s="10">
-        <v>893.171</v>
+        <v>898.229</v>
       </c>
       <c r="DP23" t="n" s="10">
-        <v>815.147</v>
+        <v>815.653</v>
       </c>
       <c r="DQ23" t="n" s="10">
-        <v>871.073</v>
+        <v>866.202</v>
       </c>
       <c r="DR23" t="n" s="10">
-        <v>880.867</v>
+        <v>879.225</v>
       </c>
       <c r="DS23" t="n" s="10">
-        <v>884.551</v>
+        <v>889.389</v>
       </c>
       <c r="DT23" t="n" s="10">
-        <v>908.256</v>
+        <v>909.131</v>
       </c>
       <c r="DU23" t="n" s="10">
-        <v>938.333</v>
+        <v>933.5</v>
       </c>
       <c r="DV23" t="n" s="10">
-        <v>947.838</v>
+        <v>945.828</v>
+      </c>
+      <c r="DW23" t="n" s="10">
+        <v>966.509</v>
+      </c>
+      <c r="DX23" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY23" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ23" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="9">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s" s="13">
         <v>43</v>
-      </c>
-      <c r="B24" t="s" s="13">
-        <v>42</v>
       </c>
       <c r="C24" t="n" s="10">
         <v>59.62</v>
@@ -9489,51 +9757,63 @@
         <v>153.537</v>
       </c>
       <c r="DJ24" t="n" s="10">
-        <v>155.456</v>
+        <v>155.457</v>
       </c>
       <c r="DK24" t="n" s="10">
-        <v>157.284</v>
+        <v>157.289</v>
       </c>
       <c r="DL24" t="n" s="10">
-        <v>158.828</v>
+        <v>158.836</v>
       </c>
       <c r="DM24" t="n" s="10">
-        <v>160.727</v>
+        <v>160.703</v>
       </c>
       <c r="DN24" t="n" s="10">
-        <v>162.371</v>
+        <v>162.319</v>
       </c>
       <c r="DO24" t="n" s="10">
-        <v>163.55</v>
+        <v>163.571</v>
       </c>
       <c r="DP24" t="n" s="10">
-        <v>164.286</v>
+        <v>164.508</v>
       </c>
       <c r="DQ24" t="n" s="10">
-        <v>164.824</v>
+        <v>164.71</v>
       </c>
       <c r="DR24" t="n" s="10">
-        <v>165.901</v>
+        <v>165.7</v>
       </c>
       <c r="DS24" t="n" s="10">
-        <v>167.668</v>
+        <v>167.829</v>
       </c>
       <c r="DT24" t="n" s="10">
-        <v>170.22</v>
+        <v>170.69</v>
       </c>
       <c r="DU24" t="n" s="10">
-        <v>176.712</v>
+        <v>176.617</v>
       </c>
       <c r="DV24" t="n" s="10">
-        <v>179.425</v>
+        <v>179.06</v>
+      </c>
+      <c r="DW24" t="n" s="10">
+        <v>183.279</v>
+      </c>
+      <c r="DX24" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY24" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ24" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="9">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" t="n" s="10">
         <v>329.442</v>
@@ -9695,76 +9975,76 @@
         <v>469.239</v>
       </c>
       <c r="BD25" t="n" s="10">
-        <v>472.065</v>
+        <v>472.067</v>
       </c>
       <c r="BE25" t="n" s="10">
-        <v>472.457</v>
+        <v>472.462</v>
       </c>
       <c r="BF25" t="n" s="10">
-        <v>475.889</v>
+        <v>475.893</v>
       </c>
       <c r="BG25" t="n" s="10">
-        <v>470.414</v>
+        <v>470.366</v>
       </c>
       <c r="BH25" t="n" s="10">
-        <v>478.26</v>
+        <v>478.234</v>
       </c>
       <c r="BI25" t="n" s="10">
-        <v>481.305</v>
+        <v>481.41</v>
       </c>
       <c r="BJ25" t="n" s="10">
-        <v>484.531</v>
+        <v>484.789</v>
       </c>
       <c r="BK25" t="n" s="10">
-        <v>494.861</v>
+        <v>494.359</v>
       </c>
       <c r="BL25" t="n" s="10">
-        <v>501.475</v>
+        <v>501.341</v>
       </c>
       <c r="BM25" t="n" s="10">
-        <v>508.307</v>
+        <v>508.715</v>
       </c>
       <c r="BN25" t="n" s="10">
-        <v>518.141</v>
+        <v>518.707</v>
       </c>
       <c r="BO25" t="n" s="10">
-        <v>523.463</v>
+        <v>522.576</v>
       </c>
       <c r="BP25" t="n" s="10">
-        <v>521.843</v>
+        <v>521.64</v>
       </c>
       <c r="BQ25" t="n" s="10">
-        <v>529.719</v>
+        <v>530.237</v>
       </c>
       <c r="BR25" t="n" s="10">
-        <v>535.755</v>
+        <v>536.119</v>
       </c>
       <c r="BS25" t="n" s="10">
-        <v>535.827</v>
+        <v>535.325</v>
       </c>
       <c r="BT25" t="n" s="10">
-        <v>539.258</v>
+        <v>539.124</v>
       </c>
       <c r="BU25" t="n" s="10">
-        <v>531.327</v>
+        <v>531.541</v>
       </c>
       <c r="BV25" t="n" s="10">
-        <v>520.872</v>
+        <v>520.93</v>
       </c>
       <c r="BW25" t="n" s="10">
-        <v>508.48</v>
+        <v>508.431</v>
       </c>
       <c r="BX25" t="n" s="10">
-        <v>506.872</v>
+        <v>506.847</v>
       </c>
       <c r="BY25" t="n" s="10">
-        <v>513.842</v>
+        <v>513.847</v>
       </c>
       <c r="BZ25" t="n" s="10">
-        <v>520.084</v>
+        <v>520.088</v>
       </c>
       <c r="CA25" t="n" s="10">
-        <v>526.304</v>
+        <v>526.305</v>
       </c>
       <c r="CB25" t="n" s="10">
         <v>535.713</v>
@@ -9848,72 +10128,84 @@
         <v>670.32</v>
       </c>
       <c r="DC25" t="n" s="10">
-        <v>681.394</v>
+        <v>681.389</v>
       </c>
       <c r="DD25" t="n" s="10">
-        <v>682.634</v>
+        <v>682.613</v>
       </c>
       <c r="DE25" t="n" s="10">
-        <v>696.358</v>
+        <v>696.322</v>
       </c>
       <c r="DF25" t="n" s="10">
-        <v>702.351</v>
+        <v>702.458</v>
       </c>
       <c r="DG25" t="n" s="10">
-        <v>706.154</v>
+        <v>706.477</v>
       </c>
       <c r="DH25" t="n" s="10">
-        <v>716.827</v>
+        <v>716.721</v>
       </c>
       <c r="DI25" t="n" s="10">
-        <v>716.739</v>
+        <v>715.494</v>
       </c>
       <c r="DJ25" t="n" s="10">
-        <v>724.93</v>
+        <v>724.848</v>
       </c>
       <c r="DK25" t="n" s="10">
-        <v>732.316</v>
+        <v>735.179</v>
       </c>
       <c r="DL25" t="n" s="10">
-        <v>733.554</v>
+        <v>733.552</v>
       </c>
       <c r="DM25" t="n" s="10">
-        <v>743.26</v>
+        <v>739.438</v>
       </c>
       <c r="DN25" t="n" s="10">
-        <v>735.862</v>
+        <v>735.016</v>
       </c>
       <c r="DO25" t="n" s="10">
-        <v>729.621</v>
+        <v>734.658</v>
       </c>
       <c r="DP25" t="n" s="10">
-        <v>650.861</v>
+        <v>651.145</v>
       </c>
       <c r="DQ25" t="n" s="10">
-        <v>706.249</v>
+        <v>701.492</v>
       </c>
       <c r="DR25" t="n" s="10">
-        <v>714.966</v>
+        <v>713.525</v>
       </c>
       <c r="DS25" t="n" s="10">
-        <v>716.883</v>
+        <v>721.56</v>
       </c>
       <c r="DT25" t="n" s="10">
-        <v>738.036</v>
+        <v>738.441</v>
       </c>
       <c r="DU25" t="n" s="10">
-        <v>761.621</v>
+        <v>756.883</v>
       </c>
       <c r="DV25" t="n" s="10">
-        <v>768.413</v>
+        <v>766.768</v>
+      </c>
+      <c r="DW25" t="n" s="10">
+        <v>783.23</v>
+      </c>
+      <c r="DX25" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY25" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ25" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" t="n" s="10">
         <v>29.207</v>
@@ -10075,76 +10367,76 @@
         <v>52.81</v>
       </c>
       <c r="BD26" t="n" s="10">
-        <v>51.179</v>
+        <v>51.181</v>
       </c>
       <c r="BE26" t="n" s="10">
-        <v>51.77</v>
+        <v>51.775</v>
       </c>
       <c r="BF26" t="n" s="10">
-        <v>52.571</v>
+        <v>52.575</v>
       </c>
       <c r="BG26" t="n" s="10">
-        <v>51.726</v>
+        <v>51.678</v>
       </c>
       <c r="BH26" t="n" s="10">
-        <v>52.907</v>
+        <v>52.881</v>
       </c>
       <c r="BI26" t="n" s="10">
-        <v>54.175</v>
+        <v>54.28</v>
       </c>
       <c r="BJ26" t="n" s="10">
-        <v>54.05</v>
+        <v>54.308</v>
       </c>
       <c r="BK26" t="n" s="10">
-        <v>54.095</v>
+        <v>53.593</v>
       </c>
       <c r="BL26" t="n" s="10">
-        <v>54.651</v>
+        <v>54.517</v>
       </c>
       <c r="BM26" t="n" s="10">
-        <v>55.375</v>
+        <v>55.783</v>
       </c>
       <c r="BN26" t="n" s="10">
-        <v>58.134</v>
+        <v>58.7</v>
       </c>
       <c r="BO26" t="n" s="10">
-        <v>60.478</v>
+        <v>59.591</v>
       </c>
       <c r="BP26" t="n" s="10">
-        <v>59.895</v>
+        <v>59.692</v>
       </c>
       <c r="BQ26" t="n" s="10">
-        <v>61.895</v>
+        <v>62.413</v>
       </c>
       <c r="BR26" t="n" s="10">
-        <v>63.21</v>
+        <v>63.574</v>
       </c>
       <c r="BS26" t="n" s="10">
-        <v>60.867</v>
+        <v>60.365</v>
       </c>
       <c r="BT26" t="n" s="10">
-        <v>62.147</v>
+        <v>62.013</v>
       </c>
       <c r="BU26" t="n" s="10">
-        <v>63.123</v>
+        <v>63.337</v>
       </c>
       <c r="BV26" t="n" s="10">
-        <v>62.888</v>
+        <v>62.946</v>
       </c>
       <c r="BW26" t="n" s="10">
-        <v>61.172</v>
+        <v>61.123</v>
       </c>
       <c r="BX26" t="n" s="10">
-        <v>60.646</v>
+        <v>60.621</v>
       </c>
       <c r="BY26" t="n" s="10">
-        <v>60.27</v>
+        <v>60.275</v>
       </c>
       <c r="BZ26" t="n" s="10">
-        <v>60.869</v>
+        <v>60.873</v>
       </c>
       <c r="CA26" t="n" s="10">
-        <v>59.364</v>
+        <v>59.365</v>
       </c>
       <c r="CB26" t="n" s="10">
         <v>62.107</v>
@@ -10228,72 +10520,84 @@
         <v>77.983</v>
       </c>
       <c r="DC26" t="n" s="10">
-        <v>79.561</v>
+        <v>79.556</v>
       </c>
       <c r="DD26" t="n" s="10">
-        <v>79.4</v>
+        <v>79.385</v>
       </c>
       <c r="DE26" t="n" s="10">
-        <v>79.653</v>
+        <v>79.633</v>
       </c>
       <c r="DF26" t="n" s="10">
-        <v>81.051</v>
+        <v>81.173</v>
       </c>
       <c r="DG26" t="n" s="10">
-        <v>81.384</v>
+        <v>81.55</v>
       </c>
       <c r="DH26" t="n" s="10">
-        <v>81.742</v>
+        <v>81.523</v>
       </c>
       <c r="DI26" t="n" s="10">
-        <v>82.94</v>
+        <v>82.034</v>
       </c>
       <c r="DJ26" t="n" s="10">
-        <v>82.573</v>
+        <v>83.387</v>
       </c>
       <c r="DK26" t="n" s="10">
-        <v>84.691</v>
+        <v>86.046</v>
       </c>
       <c r="DL26" t="n" s="10">
-        <v>83.029</v>
+        <v>82.263</v>
       </c>
       <c r="DM26" t="n" s="10">
-        <v>85.838</v>
+        <v>83.523</v>
       </c>
       <c r="DN26" t="n" s="10">
-        <v>84.574</v>
+        <v>85.813</v>
       </c>
       <c r="DO26" t="n" s="10">
-        <v>80.781</v>
+        <v>83.027</v>
       </c>
       <c r="DP26" t="n" s="10">
-        <v>59.006</v>
+        <v>57.609</v>
       </c>
       <c r="DQ26" t="n" s="10">
-        <v>67.219</v>
+        <v>65.066</v>
       </c>
       <c r="DR26" t="n" s="10">
-        <v>67.231</v>
+        <v>68.945</v>
       </c>
       <c r="DS26" t="n" s="10">
-        <v>65.34</v>
+        <v>65.555</v>
       </c>
       <c r="DT26" t="n" s="10">
-        <v>70.157</v>
+        <v>68.329</v>
       </c>
       <c r="DU26" t="n" s="10">
-        <v>77.637</v>
+        <v>74.11</v>
       </c>
       <c r="DV26" t="n" s="10">
-        <v>74.055</v>
+        <v>76.098</v>
+      </c>
+      <c r="DW26" t="n" s="10">
+        <v>93.028</v>
+      </c>
+      <c r="DX26" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY26" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ26" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="9">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" t="n" s="10">
         <v>300.235</v>
@@ -10611,75 +10915,87 @@
         <v>601.833</v>
       </c>
       <c r="DD27" t="n" s="10">
-        <v>603.234</v>
+        <v>603.228</v>
       </c>
       <c r="DE27" t="n" s="10">
-        <v>616.705</v>
+        <v>616.689</v>
       </c>
       <c r="DF27" t="n" s="10">
-        <v>621.3</v>
+        <v>621.285</v>
       </c>
       <c r="DG27" t="n" s="10">
-        <v>624.77</v>
+        <v>624.927</v>
       </c>
       <c r="DH27" t="n" s="10">
-        <v>635.085</v>
+        <v>635.198</v>
       </c>
       <c r="DI27" t="n" s="10">
-        <v>633.799</v>
+        <v>633.46</v>
       </c>
       <c r="DJ27" t="n" s="10">
-        <v>642.357</v>
+        <v>641.461</v>
       </c>
       <c r="DK27" t="n" s="10">
-        <v>647.625</v>
+        <v>649.133</v>
       </c>
       <c r="DL27" t="n" s="10">
-        <v>650.525</v>
+        <v>651.289</v>
       </c>
       <c r="DM27" t="n" s="10">
-        <v>657.422</v>
+        <v>655.915</v>
       </c>
       <c r="DN27" t="n" s="10">
-        <v>651.288</v>
+        <v>649.203</v>
       </c>
       <c r="DO27" t="n" s="10">
-        <v>648.84</v>
+        <v>651.631</v>
       </c>
       <c r="DP27" t="n" s="10">
-        <v>591.855</v>
+        <v>593.536</v>
       </c>
       <c r="DQ27" t="n" s="10">
-        <v>639.03</v>
+        <v>636.426</v>
       </c>
       <c r="DR27" t="n" s="10">
-        <v>647.735</v>
+        <v>644.58</v>
       </c>
       <c r="DS27" t="n" s="10">
-        <v>651.543</v>
+        <v>656.005</v>
       </c>
       <c r="DT27" t="n" s="10">
-        <v>667.879</v>
+        <v>670.112</v>
       </c>
       <c r="DU27" t="n" s="10">
-        <v>683.984</v>
+        <v>682.773</v>
       </c>
       <c r="DV27" t="n" s="10">
-        <v>694.358</v>
+        <v>690.67</v>
+      </c>
+      <c r="DW27" t="n" s="10">
+        <v>690.202</v>
+      </c>
+      <c r="DX27" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY27" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ27" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="9">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" t="n" s="10">
         <v>92.627</v>
       </c>
       <c r="D28" t="n" s="10">
-        <v>92.796</v>
+        <v>92.797</v>
       </c>
       <c r="E28" t="n" s="10">
         <v>94.584</v>
@@ -10697,85 +11013,85 @@
         <v>94.503</v>
       </c>
       <c r="J28" t="n" s="10">
-        <v>94.531</v>
+        <v>94.529</v>
       </c>
       <c r="K28" t="n" s="10">
         <v>94.216</v>
       </c>
       <c r="L28" t="n" s="10">
-        <v>94.894</v>
+        <v>94.899</v>
       </c>
       <c r="M28" t="n" s="10">
-        <v>94.826</v>
+        <v>94.835</v>
       </c>
       <c r="N28" t="n" s="10">
-        <v>94.1</v>
+        <v>94.075</v>
       </c>
       <c r="O28" t="n" s="10">
-        <v>96.175</v>
+        <v>96.184</v>
       </c>
       <c r="P28" t="n" s="10">
-        <v>98.286</v>
+        <v>98.299</v>
       </c>
       <c r="Q28" t="n" s="10">
-        <v>101.216</v>
+        <v>101.232</v>
       </c>
       <c r="R28" t="n" s="10">
-        <v>103.067</v>
+        <v>103.023</v>
       </c>
       <c r="S28" t="n" s="10">
-        <v>104.507</v>
+        <v>104.523</v>
       </c>
       <c r="T28" t="n" s="10">
-        <v>103.314</v>
+        <v>103.324</v>
       </c>
       <c r="U28" t="n" s="10">
-        <v>103.042</v>
+        <v>103.047</v>
       </c>
       <c r="V28" t="n" s="10">
-        <v>102.283</v>
+        <v>102.266</v>
       </c>
       <c r="W28" t="n" s="10">
-        <v>105.348</v>
+        <v>105.353</v>
       </c>
       <c r="X28" t="n" s="10">
         <v>105.155</v>
       </c>
       <c r="Y28" t="n" s="10">
-        <v>105.323</v>
+        <v>105.317</v>
       </c>
       <c r="Z28" t="n" s="10">
-        <v>107.806</v>
+        <v>107.82</v>
       </c>
       <c r="AA28" t="n" s="10">
-        <v>103.609</v>
+        <v>103.604</v>
       </c>
       <c r="AB28" t="n" s="10">
-        <v>112.559</v>
+        <v>112.554</v>
       </c>
       <c r="AC28" t="n" s="10">
-        <v>113.474</v>
+        <v>113.47</v>
       </c>
       <c r="AD28" t="n" s="10">
-        <v>113.798</v>
+        <v>113.812</v>
       </c>
       <c r="AE28" t="n" s="10">
-        <v>117.168</v>
+        <v>117.164</v>
       </c>
       <c r="AF28" t="n" s="10">
-        <v>110.799</v>
+        <v>110.795</v>
       </c>
       <c r="AG28" t="n" s="10">
-        <v>113.415</v>
+        <v>113.414</v>
       </c>
       <c r="AH28" t="n" s="10">
-        <v>112.48</v>
+        <v>112.485</v>
       </c>
       <c r="AI28" t="n" s="10">
-        <v>109.309</v>
+        <v>109.307</v>
       </c>
       <c r="AJ28" t="n" s="10">
-        <v>111.771</v>
+        <v>111.77</v>
       </c>
       <c r="AK28" t="n" s="10">
         <v>110.871</v>
@@ -10979,87 +11295,99 @@
         <v>177.014</v>
       </c>
       <c r="CZ28" t="n" s="10">
-        <v>185.559</v>
+        <v>185.56</v>
       </c>
       <c r="DA28" t="n" s="10">
-        <v>178.612</v>
+        <v>178.614</v>
       </c>
       <c r="DB28" t="n" s="10">
-        <v>179.917</v>
+        <v>179.919</v>
       </c>
       <c r="DC28" t="n" s="10">
-        <v>184.854</v>
+        <v>184.841</v>
       </c>
       <c r="DD28" t="n" s="10">
-        <v>181.526</v>
+        <v>181.499</v>
       </c>
       <c r="DE28" t="n" s="10">
-        <v>190.82</v>
+        <v>190.841</v>
       </c>
       <c r="DF28" t="n" s="10">
-        <v>190.089</v>
+        <v>190.189</v>
       </c>
       <c r="DG28" t="n" s="10">
-        <v>189.329</v>
+        <v>189.328</v>
       </c>
       <c r="DH28" t="n" s="10">
-        <v>194.087</v>
+        <v>193.942</v>
       </c>
       <c r="DI28" t="n" s="10">
-        <v>187.776</v>
+        <v>187.786</v>
       </c>
       <c r="DJ28" t="n" s="10">
-        <v>191.946</v>
+        <v>191.684</v>
       </c>
       <c r="DK28" t="n" s="10">
-        <v>192.461</v>
+        <v>192.948</v>
       </c>
       <c r="DL28" t="n" s="10">
-        <v>185.031</v>
+        <v>185.472</v>
       </c>
       <c r="DM28" t="n" s="10">
-        <v>190.798</v>
+        <v>189.934</v>
       </c>
       <c r="DN28" t="n" s="10">
-        <v>184.324</v>
+        <v>183.63</v>
       </c>
       <c r="DO28" t="n" s="10">
-        <v>181.843</v>
+        <v>182.71</v>
       </c>
       <c r="DP28" t="n" s="10">
-        <v>136.701</v>
+        <v>138.395</v>
       </c>
       <c r="DQ28" t="n" s="10">
-        <v>177.164</v>
+        <v>174.992</v>
       </c>
       <c r="DR28" t="n" s="10">
-        <v>180.337</v>
+        <v>179.292</v>
       </c>
       <c r="DS28" t="n" s="10">
-        <v>186.112</v>
+        <v>188.491</v>
       </c>
       <c r="DT28" t="n" s="10">
-        <v>187.603</v>
+        <v>189.829</v>
       </c>
       <c r="DU28" t="n" s="10">
-        <v>200.069</v>
+        <v>199.355</v>
       </c>
       <c r="DV28" t="n" s="10">
-        <v>203.456</v>
+        <v>200.519</v>
+      </c>
+      <c r="DW28" t="n" s="10">
+        <v>192.752</v>
+      </c>
+      <c r="DX28" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY28" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ28" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="9">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s" s="13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" t="n" s="10">
         <v>207.608</v>
       </c>
       <c r="D29" t="n" s="10">
-        <v>214.177</v>
+        <v>214.176</v>
       </c>
       <c r="E29" t="n" s="10">
         <v>214.51</v>
@@ -11077,85 +11405,85 @@
         <v>235.529</v>
       </c>
       <c r="J29" t="n" s="10">
-        <v>236.256</v>
+        <v>236.258</v>
       </c>
       <c r="K29" t="n" s="10">
         <v>233.671</v>
       </c>
       <c r="L29" t="n" s="10">
-        <v>237.463</v>
+        <v>237.458</v>
       </c>
       <c r="M29" t="n" s="10">
-        <v>237.916</v>
+        <v>237.907</v>
       </c>
       <c r="N29" t="n" s="10">
-        <v>239.907</v>
+        <v>239.932</v>
       </c>
       <c r="O29" t="n" s="10">
-        <v>241.868</v>
+        <v>241.859</v>
       </c>
       <c r="P29" t="n" s="10">
-        <v>242.062</v>
+        <v>242.049</v>
       </c>
       <c r="Q29" t="n" s="10">
-        <v>243.839</v>
+        <v>243.823</v>
       </c>
       <c r="R29" t="n" s="10">
-        <v>246.366</v>
+        <v>246.41</v>
       </c>
       <c r="S29" t="n" s="10">
-        <v>248.636</v>
+        <v>248.62</v>
       </c>
       <c r="T29" t="n" s="10">
-        <v>252.059</v>
+        <v>252.049</v>
       </c>
       <c r="U29" t="n" s="10">
-        <v>253.487</v>
+        <v>253.482</v>
       </c>
       <c r="V29" t="n" s="10">
-        <v>254.793</v>
+        <v>254.81</v>
       </c>
       <c r="W29" t="n" s="10">
-        <v>254.225</v>
+        <v>254.22</v>
       </c>
       <c r="X29" t="n" s="10">
         <v>254.066</v>
       </c>
       <c r="Y29" t="n" s="10">
-        <v>255.155</v>
+        <v>255.161</v>
       </c>
       <c r="Z29" t="n" s="10">
-        <v>255.265</v>
+        <v>255.251</v>
       </c>
       <c r="AA29" t="n" s="10">
-        <v>255.565</v>
+        <v>255.57</v>
       </c>
       <c r="AB29" t="n" s="10">
-        <v>255.367</v>
+        <v>255.372</v>
       </c>
       <c r="AC29" t="n" s="10">
-        <v>255.244</v>
+        <v>255.248</v>
       </c>
       <c r="AD29" t="n" s="10">
-        <v>256.357</v>
+        <v>256.343</v>
       </c>
       <c r="AE29" t="n" s="10">
-        <v>258.195</v>
+        <v>258.199</v>
       </c>
       <c r="AF29" t="n" s="10">
-        <v>260.03</v>
+        <v>260.034</v>
       </c>
       <c r="AG29" t="n" s="10">
-        <v>262.038</v>
+        <v>262.039</v>
       </c>
       <c r="AH29" t="n" s="10">
-        <v>264.108</v>
+        <v>264.103</v>
       </c>
       <c r="AI29" t="n" s="10">
-        <v>264.936</v>
+        <v>264.938</v>
       </c>
       <c r="AJ29" t="n" s="10">
-        <v>267.819</v>
+        <v>267.82</v>
       </c>
       <c r="AK29" t="n" s="10">
         <v>269.799</v>
@@ -11359,104 +11687,116 @@
         <v>400.379</v>
       </c>
       <c r="CZ29" t="n" s="10">
-        <v>403.557</v>
+        <v>403.556</v>
       </c>
       <c r="DA29" t="n" s="10">
-        <v>408.068</v>
+        <v>408.066</v>
       </c>
       <c r="DB29" t="n" s="10">
-        <v>412.42</v>
+        <v>412.418</v>
       </c>
       <c r="DC29" t="n" s="10">
-        <v>416.979</v>
+        <v>416.992</v>
       </c>
       <c r="DD29" t="n" s="10">
-        <v>421.708</v>
+        <v>421.729</v>
       </c>
       <c r="DE29" t="n" s="10">
-        <v>425.885</v>
+        <v>425.848</v>
       </c>
       <c r="DF29" t="n" s="10">
-        <v>431.211</v>
+        <v>431.096</v>
       </c>
       <c r="DG29" t="n" s="10">
-        <v>435.441</v>
+        <v>435.599</v>
       </c>
       <c r="DH29" t="n" s="10">
-        <v>440.998</v>
+        <v>441.256</v>
       </c>
       <c r="DI29" t="n" s="10">
-        <v>446.023</v>
+        <v>445.674</v>
       </c>
       <c r="DJ29" t="n" s="10">
-        <v>450.411</v>
+        <v>449.777</v>
       </c>
       <c r="DK29" t="n" s="10">
-        <v>455.164</v>
+        <v>456.185</v>
       </c>
       <c r="DL29" t="n" s="10">
-        <v>465.494</v>
+        <v>465.817</v>
       </c>
       <c r="DM29" t="n" s="10">
-        <v>466.624</v>
+        <v>465.981</v>
       </c>
       <c r="DN29" t="n" s="10">
-        <v>466.964</v>
+        <v>465.573</v>
       </c>
       <c r="DO29" t="n" s="10">
-        <v>466.997</v>
+        <v>468.921</v>
       </c>
       <c r="DP29" t="n" s="10">
-        <v>455.154</v>
+        <v>455.141</v>
       </c>
       <c r="DQ29" t="n" s="10">
-        <v>461.866</v>
+        <v>461.434</v>
       </c>
       <c r="DR29" t="n" s="10">
-        <v>467.398</v>
+        <v>465.288</v>
       </c>
       <c r="DS29" t="n" s="10">
-        <v>465.431</v>
+        <v>467.514</v>
       </c>
       <c r="DT29" t="n" s="10">
-        <v>480.276</v>
+        <v>480.283</v>
       </c>
       <c r="DU29" t="n" s="10">
-        <v>483.915</v>
+        <v>483.418</v>
       </c>
       <c r="DV29" t="n" s="10">
-        <v>490.902</v>
+        <v>490.151</v>
+      </c>
+      <c r="DW29" t="n" s="10">
+        <v>497.45</v>
+      </c>
+      <c r="DX29" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DY29" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="DZ29" t="s" s="10">
+        <v>44</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="11">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="12">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A2:DV2"/>
-    <mergeCell ref="A3:DV3"/>
+    <mergeCell ref="A2:DZ2"/>
+    <mergeCell ref="A3:DZ3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:F4"/>
@@ -11490,14 +11830,15 @@
     <mergeCell ref="DK4:DN4"/>
     <mergeCell ref="DO4:DR4"/>
     <mergeCell ref="DS4:DV4"/>
-    <mergeCell ref="A6:DV6"/>
-    <mergeCell ref="A14:DV14"/>
-    <mergeCell ref="A22:DV22"/>
-    <mergeCell ref="A1:DV1"/>
+    <mergeCell ref="DW4:DZ4"/>
+    <mergeCell ref="A6:DZ6"/>
+    <mergeCell ref="A14:DZ14"/>
+    <mergeCell ref="A22:DZ22"/>
+    <mergeCell ref="A1:DZ1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:17:38&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:54:27&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/National accounts - Gross national income quarters.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - Gross national income quarters.xlsx
@@ -186,7 +186,7 @@
     <t>paid by general government.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:54:21</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:09:45</t>
   </si>
 </sst>
 </file>
@@ -11838,7 +11838,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:54:27&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:09:51&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>